--- a/partnerTest.xlsx
+++ b/partnerTest.xlsx
@@ -7,6 +7,11 @@
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="8" sheetId="7" r:id="rId7"/>
+    <sheet name="10" sheetId="8" r:id="rId8"/>
+    <sheet name="test numero mil" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -1644,6 +1649,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:D89"/>
   </ignoredErrors>
@@ -2907,6 +2913,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E89"/>
   </ignoredErrors>
@@ -4170,8 +4177,3514 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:E89"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mail</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Jeffrey P. Altman</v>
+      </c>
+      <c r="B2" t="str">
+        <v>T:  202.659.6818</v>
+      </c>
+      <c r="C2" t="str">
+        <v>jaltman@wtplaw.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>https://www.wtplaw.com/professionals/jeffrey-p-altman</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Elizabeth J. Atkinson</v>
+      </c>
+      <c r="B3" t="str">
+        <v>T:  410.347.8784</v>
+      </c>
+      <c r="C3" t="str">
+        <v>eatkinson@wtplaw.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>https://www.wtplaw.com/professionals/elizabeth-j-atkinson</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Thomas C. Barbuti</v>
+      </c>
+      <c r="B4" t="str">
+        <v>T: 410.347.8719</v>
+      </c>
+      <c r="C4" t="str">
+        <v>tbarbuti@wtplaw.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://www.wtplaw.com/professionals/thomas-c-barbuti</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Steven P. Benson</v>
+      </c>
+      <c r="B5" t="str">
+        <v>T: 703.280.3391</v>
+      </c>
+      <c r="C5" t="str">
+        <v>sbenson@wtplaw.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.wtplaw.com/professionals/steven-p-benson</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Steven E. Bers</v>
+      </c>
+      <c r="B6" t="str">
+        <v>T: 410.347.8724</v>
+      </c>
+      <c r="C6" t="str">
+        <v>sbers@wtplaw.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.wtplaw.com/professionals/steven-e-bers</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Philip M. Bogart</v>
+      </c>
+      <c r="B7" t="str">
+        <v>T: 410.347.8710</v>
+      </c>
+      <c r="C7" t="str">
+        <v>pbogart@wtplaw.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://www.wtplaw.com/professionals/philip-m-bogart</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Glenn R. Bonard</v>
+      </c>
+      <c r="B8" t="str">
+        <v>T: 202.659.6773</v>
+      </c>
+      <c r="C8" t="str">
+        <v>gbonard@wtplaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://www.wtplaw.com/professionals/glenn-r-bonard</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Michael H. Brady</v>
+      </c>
+      <c r="B9" t="str">
+        <v>T:  804.977.3303</v>
+      </c>
+      <c r="C9" t="str">
+        <v>mbrady@wtplaw.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://www.wtplaw.com/professionals/michael-h-brady</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Todd M. Brooks</v>
+      </c>
+      <c r="B10" t="str">
+        <v>T: 410.347.9421</v>
+      </c>
+      <c r="C10" t="str">
+        <v>tbrooks@wtplaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.wtplaw.com/professionals/todd-m-brooks</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Jennifer R. Busse</v>
+      </c>
+      <c r="B11" t="str">
+        <v>T: 410.832.2077</v>
+      </c>
+      <c r="C11" t="str">
+        <v>jbusse@wtplaw.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://www.wtplaw.com/professionals/jennifer-r-busse</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Edward M. Buxbaum</v>
+      </c>
+      <c r="B12" t="str">
+        <v>T: 410.347.9408</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ebuxbaum@wtplaw.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://www.wtplaw.com/professionals/edward-m-buxbaum</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>David L. Cahn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>T: 410.347.9442</v>
+      </c>
+      <c r="C13" t="str">
+        <v>dcahn@wtplaw.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.wtplaw.com/professionals/david-l-cahn</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Robert F. Carney</v>
+      </c>
+      <c r="B14" t="str">
+        <v>T: 410.347.8726</v>
+      </c>
+      <c r="C14" t="str">
+        <v>rcarney@wtplaw.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://www.wtplaw.com/professionals/robert-f-carney</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Aaron L. Casagrande</v>
+      </c>
+      <c r="B15" t="str">
+        <v>T: 410.347.8714</v>
+      </c>
+      <c r="C15" t="str">
+        <v>acasagrande@wtplaw.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://www.wtplaw.com/professionals/aaron-l-casagrande</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Mary Claire Chesshire</v>
+      </c>
+      <c r="B16" t="str">
+        <v>T: 410.347.9465</v>
+      </c>
+      <c r="C16" t="str">
+        <v>mchesshire@wtplaw.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://www.wtplaw.com/professionals/mary-claire-chesshire</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Adam Cizek</v>
+      </c>
+      <c r="B17" t="str">
+        <v>T: 410.347.8717</v>
+      </c>
+      <c r="C17" t="str">
+        <v>acizek@wtplaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://www.wtplaw.com/professionals/adam-cizek</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Erika E. Cole</v>
+      </c>
+      <c r="B18" t="str">
+        <v>T:  410.654.4300</v>
+      </c>
+      <c r="C18" t="str">
+        <v>ecole@wtplaw.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://www.wtplaw.com/professionals/erika-e-cole</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Robert B. Curran</v>
+      </c>
+      <c r="B19" t="str">
+        <v>T: 410.347.9472</v>
+      </c>
+      <c r="C19" t="str">
+        <v>rcurran@wtplaw.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://www.wtplaw.com/professionals/robert-b-curran</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>David Daneman</v>
+      </c>
+      <c r="B20" t="str">
+        <v>T: 410.347.8729</v>
+      </c>
+      <c r="C20" t="str">
+        <v>ddaneman@wtplaw.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://www.wtplaw.com/professionals/david-daneman</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Mary Elizabeth "Betsy" Davis</v>
+      </c>
+      <c r="B21" t="str">
+        <v>T:  804.799.7864</v>
+      </c>
+      <c r="C21" t="str">
+        <v>bdavis@wtplaw.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://www.wtplaw.com/professionals/mary-elizabeth-davis</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Peter J. Davis</v>
+      </c>
+      <c r="B22" t="str">
+        <v>T: 410.347.8738</v>
+      </c>
+      <c r="C22" t="str">
+        <v>pdavis@wtplaw.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://www.wtplaw.com/professionals/peter-j-davis</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Dorothy Deng</v>
+      </c>
+      <c r="B23" t="str">
+        <v>T: 202.659.6789</v>
+      </c>
+      <c r="C23" t="str">
+        <v>ddeng@wtplaw.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://www.wtplaw.com/professionals/dorothy-deng</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Marla J. Diaz</v>
+      </c>
+      <c r="B24" t="str">
+        <v>T: 703.280.9131</v>
+      </c>
+      <c r="C24" t="str">
+        <v>mdiaz@wtplaw.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://www.wtplaw.com/professionals/marla-j-diaz</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Joseph D. Douglass</v>
+      </c>
+      <c r="B25" t="str">
+        <v>T: 202.659.6779</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jdouglass@wtplaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://www.wtplaw.com/professionals/joseph-d-douglass</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Gardner M. Duvall</v>
+      </c>
+      <c r="B26" t="str">
+        <v>T: 410.347.9417</v>
+      </c>
+      <c r="C26" t="str">
+        <v>gduvall@wtplaw.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://www.wtplaw.com/professionals/gardner-m-duvall</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Julianne E. Dymowski</v>
+      </c>
+      <c r="B27" t="str">
+        <v>T: 202.659.6795</v>
+      </c>
+      <c r="C27" t="str">
+        <v>jdymowski@wtplaw.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://www.wtplaw.com/professionals/julianne-e-dymowski</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Bradford F. Englander</v>
+      </c>
+      <c r="B28" t="str">
+        <v>T: 703.280.9081</v>
+      </c>
+      <c r="C28" t="str">
+        <v>benglander@wtplaw.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://www.wtplaw.com/professionals/bradford-f-englander</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Stephen M. Faraci, Sr.</v>
+      </c>
+      <c r="B29" t="str">
+        <v>T: 804.977.3307</v>
+      </c>
+      <c r="C29" t="str">
+        <v>sfaraci@wtplaw.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.wtplaw.com/professionals/stephen-m-faraci-sr</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Edwin G. Fee, Jr.</v>
+      </c>
+      <c r="B30" t="str">
+        <v>T: 410.832.2041</v>
+      </c>
+      <c r="C30" t="str">
+        <v>efee@wtplaw.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.wtplaw.com/professionals/edwin-g-fee-jr</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Howard R. Feldman</v>
+      </c>
+      <c r="B31" t="str">
+        <v>T: 410.347.8793</v>
+      </c>
+      <c r="C31" t="str">
+        <v>hfeldman@wtplaw.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.wtplaw.com/professionals/howard-r-feldman</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>David W. Gaffey</v>
+      </c>
+      <c r="B32" t="str">
+        <v>T:  703.280.3374</v>
+      </c>
+      <c r="C32" t="str">
+        <v>dgaffey@wtplaw.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.wtplaw.com/professionals/david-w-gaffey</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Michael C. Gartner</v>
+      </c>
+      <c r="B33" t="str">
+        <v>T: 703.280.9267</v>
+      </c>
+      <c r="C33" t="str">
+        <v>mgartner@wtplaw.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.wtplaw.com/professionals/michael-c-gartner</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Stephen B. Gerald</v>
+      </c>
+      <c r="B34" t="str">
+        <v>T: 302.357.3282</v>
+      </c>
+      <c r="C34" t="str">
+        <v>sgerald@wtplaw.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.wtplaw.com/professionals/stephen-b-gerald</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Alexander M. Giles</v>
+      </c>
+      <c r="B35" t="str">
+        <v>T:  410.347.8750</v>
+      </c>
+      <c r="C35" t="str">
+        <v>agiles@wtplaw.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.wtplaw.com/professionals/alexander-m-giles</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Jefferson C. Glassie, FASAE</v>
+      </c>
+      <c r="B36" t="str">
+        <v>T: 202.689.3156</v>
+      </c>
+      <c r="C36" t="str">
+        <v>jglassie@wtplaw.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.wtplaw.com/professionals/jefferson-c-glassie</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>John B. Gontrum</v>
+      </c>
+      <c r="B37" t="str">
+        <v>T: 410.832.2055</v>
+      </c>
+      <c r="C37" t="str">
+        <v>jgontrum@wtplaw.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.wtplaw.com/professionals/john-b-gontrum</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Daniel A. Griffith</v>
+      </c>
+      <c r="B38" t="str">
+        <v>T:  302.357.3254</v>
+      </c>
+      <c r="C38" t="str">
+        <v>dgriffith@wtplaw.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://www.wtplaw.com/professionals/daniel-a-griffith</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Peter D. Guattery</v>
+      </c>
+      <c r="B39" t="str">
+        <v>T: 410.347.9431</v>
+      </c>
+      <c r="C39" t="str">
+        <v>pguattery@wtplaw.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://www.wtplaw.com/professionals/peter-d-guattery</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Sigrid C. Haines</v>
+      </c>
+      <c r="B40" t="str">
+        <v>T: 410.347.8753</v>
+      </c>
+      <c r="C40" t="str">
+        <v>shaines@wtplaw.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://www.wtplaw.com/professionals/sigrid-c-haines</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Scott M. Hare</v>
+      </c>
+      <c r="B41" t="str">
+        <v>T:  412.275.2399</v>
+      </c>
+      <c r="C41" t="str">
+        <v>share@wtplaw.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://www.wtplaw.com/professionals/scott-m-hare</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>John J. Hathway</v>
+      </c>
+      <c r="B42" t="str">
+        <v>T: 202.659.6766</v>
+      </c>
+      <c r="C42" t="str">
+        <v>jhathway@wtplaw.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://www.wtplaw.com/professionals/john-j-hathway</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Craig B. Heron</v>
+      </c>
+      <c r="B43" t="str">
+        <v>T: 410.347.8731</v>
+      </c>
+      <c r="C43" t="str">
+        <v>cheron@wtplaw.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://www.wtplaw.com/professionals/craig-booth-heron</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Katja H.  Hill</v>
+      </c>
+      <c r="B44" t="str">
+        <v>T:  804.783.7543</v>
+      </c>
+      <c r="C44" t="str">
+        <v>khill@wtplaw.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://www.wtplaw.com/professionals/katja-h-hill</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Kevin G. Hroblak</v>
+      </c>
+      <c r="B45" t="str">
+        <v>T: 410.347.9405</v>
+      </c>
+      <c r="C45" t="str">
+        <v>khroblak@wtplaw.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://www.wtplaw.com/professionals/kevin-g-hroblak</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Vernon E. Inge, Jr.</v>
+      </c>
+      <c r="B46" t="str">
+        <v>T: 804.977.3301</v>
+      </c>
+      <c r="C46" t="str">
+        <v>vinge@wtplaw.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://www.wtplaw.com/professionals/vernon-e-inge-jr</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Kenneth J. Ingram</v>
+      </c>
+      <c r="B47" t="str">
+        <v>T: 202.659.6790</v>
+      </c>
+      <c r="C47" t="str">
+        <v>kingram@wtplaw.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://www.wtplaw.com/professionals/kenneth-j-ingram</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Jennifer S. Jackman</v>
+      </c>
+      <c r="B48" t="str">
+        <v>T:  202.659.6794</v>
+      </c>
+      <c r="C48" t="str">
+        <v>jjackman@wtplaw.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://www.wtplaw.com/professionals/jennifer-s-jackman</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Harry S. Johnson</v>
+      </c>
+      <c r="B49" t="str">
+        <v>T: 410.347.8743</v>
+      </c>
+      <c r="C49" t="str">
+        <v>hjohnson@wtplaw.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://www.wtplaw.com/professionals/harry-s-johnson</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Eileen Morgan Johnson, CAE</v>
+      </c>
+      <c r="B50" t="str">
+        <v>T: 703.280.9271</v>
+      </c>
+      <c r="C50" t="str">
+        <v>emjohnson@wtplaw.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://www.wtplaw.com/professionals/eileen-morgan-johnson-cae</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Christopher A. Jones</v>
+      </c>
+      <c r="B51" t="str">
+        <v>T:  703.280.9263</v>
+      </c>
+      <c r="C51" t="str">
+        <v>cajones@wtplaw.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>https://www.wtplaw.com/professionals/christopher-a-jones</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Frank S. Jones, Jr.</v>
+      </c>
+      <c r="B52" t="str">
+        <v>T: 410.347.8707</v>
+      </c>
+      <c r="C52" t="str">
+        <v>fjones@wtplaw.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>https://www.wtplaw.com/professionals/frank-s-jones-jr</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>James A. Kahl</v>
+      </c>
+      <c r="B53" t="str">
+        <v>T: 202.659.6775</v>
+      </c>
+      <c r="C53" t="str">
+        <v>jkahl@wtplaw.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>https://www.wtplaw.com/professionals/james-a-kahl</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Kevin A. Kernan</v>
+      </c>
+      <c r="B54" t="str">
+        <v>T: 703.573.1031</v>
+      </c>
+      <c r="C54" t="str">
+        <v>kkernan@wtplaw.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>https://www.wtplaw.com/professionals/kevin-a-kernan</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>George S. Lawler</v>
+      </c>
+      <c r="B55" t="str">
+        <v>T:  410.832.2040</v>
+      </c>
+      <c r="C55" t="str">
+        <v>glawler@wtplaw.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>https://www.wtplaw.com/professionals/george-s-lawler</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Edward U. Lee III</v>
+      </c>
+      <c r="B56" t="str">
+        <v>T: 410.347.8704</v>
+      </c>
+      <c r="C56" t="str">
+        <v>elee@wtplaw.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>https://www.wtplaw.com/professionals/edward-u-lee-iii</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Kenneth M. Lewis</v>
+      </c>
+      <c r="B57" t="str">
+        <v>T: 914.761.8400</v>
+      </c>
+      <c r="C57" t="str">
+        <v>klewis@wtplaw.com</v>
+      </c>
+      <c r="D57" t="str">
+        <v>https://www.wtplaw.com/professionals/kenneth-m-lewis</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Rose M. Matricciani</v>
+      </c>
+      <c r="B58" t="str">
+        <v>T: 410.347.9476</v>
+      </c>
+      <c r="C58" t="str">
+        <v>rmatricciani@wtplaw.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>https://www.wtplaw.com/professionals/rose-m-matricciani</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Kevin C. McCormick</v>
+      </c>
+      <c r="B59" t="str">
+        <v>T: 410.347.8779</v>
+      </c>
+      <c r="C59" t="str">
+        <v>kmccormick@wtplaw.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>https://www.wtplaw.com/professionals/kevin-c-mccormick</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Albert J. Mezzanotte, Jr.</v>
+      </c>
+      <c r="B60" t="str">
+        <v>T: 410.347.9471</v>
+      </c>
+      <c r="C60" t="str">
+        <v>amezzanotte@wtplaw.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>https://www.wtplaw.com/professionals/albert-j-mezzanotte-jr</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Joseph J. Mezzanotte</v>
+      </c>
+      <c r="B61" t="str">
+        <v>T: 410.347.9441</v>
+      </c>
+      <c r="C61" t="str">
+        <v>jmezzanotte@wtplaw.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>https://www.wtplaw.com/professionals/joseph-j-mezzanotte</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Kimberly J. Min</v>
+      </c>
+      <c r="B62" t="str">
+        <v>T: 410.347.8751</v>
+      </c>
+      <c r="C62" t="str">
+        <v>kmin@wtplaw.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>https://www.wtplaw.com/professionals/kimberly-j-min</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Razvan E. Miutescu</v>
+      </c>
+      <c r="B63" t="str">
+        <v>T: 410.347.8744</v>
+      </c>
+      <c r="C63" t="str">
+        <v>rmiutescu@wtplaw.com</v>
+      </c>
+      <c r="D63" t="str">
+        <v>https://www.wtplaw.com/professionals/razvan-e-miutescu</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Roberto M. Montesinos</v>
+      </c>
+      <c r="B64" t="str">
+        <v>T:  301.804.3614</v>
+      </c>
+      <c r="C64" t="str">
+        <v>rmontesinos@wtplaw.com</v>
+      </c>
+      <c r="D64" t="str">
+        <v>https://www.wtplaw.com/professionals/roberto-m-montesinos</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>S. Keith Moulsdale</v>
+      </c>
+      <c r="B65" t="str">
+        <v>T: 410.347.8721</v>
+      </c>
+      <c r="C65" t="str">
+        <v>skmoulsdale@wtplaw.com</v>
+      </c>
+      <c r="D65" t="str">
+        <v>https://www.wtplaw.com/professionals/s-keith-moulsdale</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Dale G. Mullen</v>
+      </c>
+      <c r="B66" t="str">
+        <v>T:  804.799.7854</v>
+      </c>
+      <c r="C66" t="str">
+        <v>dmullen@wtplaw.com</v>
+      </c>
+      <c r="D66" t="str">
+        <v>https://www.wtplaw.com/professionals/dale-g-mullen</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Kellie L. Newton</v>
+      </c>
+      <c r="B67" t="str">
+        <v>T: 202.659.6776</v>
+      </c>
+      <c r="C67" t="str">
+        <v>knewton@wtplaw.com</v>
+      </c>
+      <c r="D67" t="str">
+        <v>https://www.wtplaw.com/professionals/kellie-l-newton</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Paul M. Nussbaum</v>
+      </c>
+      <c r="B68" t="str">
+        <v>T: 410.347.8794</v>
+      </c>
+      <c r="C68" t="str">
+        <v>pnussbaum@wtplaw.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>https://www.wtplaw.com/professionals/paul-m-nussbaum</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Edward J. O'Connell III</v>
+      </c>
+      <c r="B69" t="str">
+        <v>T: 703.280.9266</v>
+      </c>
+      <c r="C69" t="str">
+        <v>eoconnell@wtplaw.com</v>
+      </c>
+      <c r="D69" t="str">
+        <v>https://www.wtplaw.com/professionals/edward-j-oconnell-iii</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Spencer S. Pollock,  CIPP/US, CIPM</v>
+      </c>
+      <c r="B70" t="str">
+        <v>T: 410.347.8700</v>
+      </c>
+      <c r="C70" t="str">
+        <v>spollock@wtplaw.com</v>
+      </c>
+      <c r="D70" t="str">
+        <v>https://www.wtplaw.com/professionals/spencer-s-pollock</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Enayat Qasimi</v>
+      </c>
+      <c r="B71" t="str">
+        <v>T: 202.659.6792</v>
+      </c>
+      <c r="C71" t="str">
+        <v>eqasimi@wtplaw.com</v>
+      </c>
+      <c r="D71" t="str">
+        <v>https://www.wtplaw.com/professionals/enayat-qasimi</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Brandy M. Rapp</v>
+      </c>
+      <c r="B72" t="str">
+        <v>T: 540.759.3577</v>
+      </c>
+      <c r="C72" t="str">
+        <v>brapp@wtplaw.com</v>
+      </c>
+      <c r="D72" t="str">
+        <v>https://www.wtplaw.com/professionals/brandy-m-rapp</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Tiffany M. Releford</v>
+      </c>
+      <c r="B73" t="str">
+        <v>T: 202.659.6764</v>
+      </c>
+      <c r="C73" t="str">
+        <v>treleford@wtplaw.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>https://www.wtplaw.com/professionals/tiffany-m-releford</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Chad Rinard</v>
+      </c>
+      <c r="B74" t="str">
+        <v>T: 703.280.3380</v>
+      </c>
+      <c r="C74" t="str">
+        <v>crinard@wtplaw.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>https://www.wtplaw.com/professionals/chad-rinard</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Michael J. Roeschenthaler</v>
+      </c>
+      <c r="B75" t="str">
+        <v>T: 412.618.5601</v>
+      </c>
+      <c r="C75" t="str">
+        <v>mroeschenthaler@wtplaw.com</v>
+      </c>
+      <c r="D75" t="str">
+        <v>https://www.wtplaw.com/professionals/michael-j-roeschenthaler</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Jane Saindon Rogers</v>
+      </c>
+      <c r="B76" t="str">
+        <v>T: 202.659.6769</v>
+      </c>
+      <c r="C76" t="str">
+        <v>jrogers@wtplaw.com</v>
+      </c>
+      <c r="D76" t="str">
+        <v>https://www.wtplaw.com/professionals/jane-saindon-rogers</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Herman B. Rosenthal</v>
+      </c>
+      <c r="B77" t="str">
+        <v>T: 410.347.9488</v>
+      </c>
+      <c r="C77" t="str">
+        <v>hrosenthal@wtplaw.com</v>
+      </c>
+      <c r="D77" t="str">
+        <v>https://www.wtplaw.com/professionals/herman-b-rosenthal</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>William F. Ryan, Jr.</v>
+      </c>
+      <c r="B78" t="str">
+        <v>T:  410.347.8741</v>
+      </c>
+      <c r="C78" t="str">
+        <v>wryan@wtplaw.com</v>
+      </c>
+      <c r="D78" t="str">
+        <v>https://www.wtplaw.com/professionals/william-f-ryan-jr</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Stephen M. Schaefer</v>
+      </c>
+      <c r="B79" t="str">
+        <v>T:  410.884.2444</v>
+      </c>
+      <c r="C79" t="str">
+        <v>sschaefer@wtplaw.com</v>
+      </c>
+      <c r="D79" t="str">
+        <v>https://www.wtplaw.com/professionals/stephen-m-schaefer</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Daniel R. Schimizzi</v>
+      </c>
+      <c r="B80" t="str">
+        <v>T:  412.275.2401</v>
+      </c>
+      <c r="C80" t="str">
+        <v>dschimizzi@wtplaw.com</v>
+      </c>
+      <c r="D80" t="str">
+        <v>https://www.wtplaw.com/professionals/daniel-r-schimizzi</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>John C. Selbach</v>
+      </c>
+      <c r="B81" t="str">
+        <v>T:  804.343.4388</v>
+      </c>
+      <c r="C81" t="str">
+        <v>jselbach@wtplaw.com</v>
+      </c>
+      <c r="D81" t="str">
+        <v>https://www.wtplaw.com/professionals/john-c-selbach</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Dennis J. Shaffer</v>
+      </c>
+      <c r="B82" t="str">
+        <v>T: 410.347.9437</v>
+      </c>
+      <c r="C82" t="str">
+        <v>dshaffer@wtplaw.com</v>
+      </c>
+      <c r="D82" t="str">
+        <v>https://www.wtplaw.com/professionals/dennis-j-shaffer</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Charles L. Simmons, Jr.</v>
+      </c>
+      <c r="B83" t="str">
+        <v>T:  410.347.9491</v>
+      </c>
+      <c r="C83" t="str">
+        <v>csimmons@wtplaw.com</v>
+      </c>
+      <c r="D83" t="str">
+        <v>https://www.wtplaw.com/professionals/charles-l-simmons-jr</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>D. Shane Smith</v>
+      </c>
+      <c r="B84" t="str">
+        <v>T:  804.762.6860</v>
+      </c>
+      <c r="C84" t="str">
+        <v>dssmith@wtplaw.com</v>
+      </c>
+      <c r="D84" t="str">
+        <v>https://www.wtplaw.com/professionals/d-shane-smith</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>David M. Stevens</v>
+      </c>
+      <c r="B85" t="str">
+        <v>T: 443.263.8250</v>
+      </c>
+      <c r="C85" t="str">
+        <v>dstevens@wtplaw.com</v>
+      </c>
+      <c r="D85" t="str">
+        <v>https://www.wtplaw.com/professionals/david-m-stevens</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Ryan J. Stoker</v>
+      </c>
+      <c r="B86" t="str">
+        <v>T: 443.263.8209</v>
+      </c>
+      <c r="C86" t="str">
+        <v>rstoker@wtplaw.com</v>
+      </c>
+      <c r="D86" t="str">
+        <v>https://www.wtplaw.com/professionals/ryan-j-stoker</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Gregory M. Stone</v>
+      </c>
+      <c r="B87" t="str">
+        <v>T: 410.659.6402</v>
+      </c>
+      <c r="C87" t="str">
+        <v>gstone@wtplaw.com</v>
+      </c>
+      <c r="D87" t="str">
+        <v>https://www.wtplaw.com/professionals/gregory-m-stone</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Brent C. Strickland</v>
+      </c>
+      <c r="B88" t="str">
+        <v>T: 410.347.9402</v>
+      </c>
+      <c r="C88" t="str">
+        <v>bstrickland@wtplaw.com</v>
+      </c>
+      <c r="D88" t="str">
+        <v>https://www.wtplaw.com/professionals/brent-c-strickland</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Ilana Subar</v>
+      </c>
+      <c r="B89" t="str">
+        <v>T: 410.347.9419</v>
+      </c>
+      <c r="C89" t="str">
+        <v>isubar@wtplaw.com</v>
+      </c>
+      <c r="D89" t="str">
+        <v>https://www.wtplaw.com/professionals/ilana-subar</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Andrew J. Terrell</v>
+      </c>
+      <c r="B90" t="str">
+        <v>T: 202.659.6788</v>
+      </c>
+      <c r="C90" t="str">
+        <v>aterrell@wtplaw.com</v>
+      </c>
+      <c r="D90" t="str">
+        <v>https://www.wtplaw.com/professionals/andrew-j-terrell</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Steven E. Tiller</v>
+      </c>
+      <c r="B91" t="str">
+        <v>T: 410.347.9425</v>
+      </c>
+      <c r="C91" t="str">
+        <v>stiller@wtplaw.com</v>
+      </c>
+      <c r="D91" t="str">
+        <v>https://www.wtplaw.com/professionals/steven-e-tiller</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Chad J. Toms</v>
+      </c>
+      <c r="B92" t="str">
+        <v>T:  302.357.3253</v>
+      </c>
+      <c r="C92" t="str">
+        <v>ctoms@wtplaw.com</v>
+      </c>
+      <c r="D92" t="str">
+        <v>https://www.wtplaw.com/professionals/chad-j-toms</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Eric A. Vendt</v>
+      </c>
+      <c r="B93" t="str">
+        <v>T: 703.280.9261</v>
+      </c>
+      <c r="C93" t="str">
+        <v>evendt@wtplaw.com</v>
+      </c>
+      <c r="D93" t="str">
+        <v>https://www.wtplaw.com/professionals/eric-a-vendt</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Raymond B. Via, Jr.</v>
+      </c>
+      <c r="B94" t="str">
+        <v>T:  301.804.3611</v>
+      </c>
+      <c r="C94" t="str">
+        <v>rvia@wtplaw.com</v>
+      </c>
+      <c r="D94" t="str">
+        <v>https://www.wtplaw.com/professionals/raymond-b-via-jr</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>J. Daniel Vorsteg</v>
+      </c>
+      <c r="B95" t="str">
+        <v>T: 410.347.9429</v>
+      </c>
+      <c r="C95" t="str">
+        <v>jdvorsteg@wtplaw.com</v>
+      </c>
+      <c r="D95" t="str">
+        <v>https://www.wtplaw.com/professionals/j-daniel-vorsteg</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Warren N. Weaver</v>
+      </c>
+      <c r="B96" t="str">
+        <v>T: 410.347.8757</v>
+      </c>
+      <c r="C96" t="str">
+        <v>wweaver@wtplaw.com</v>
+      </c>
+      <c r="D96" t="str">
+        <v>https://www.wtplaw.com/professionals/warren-n-weaver</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Thomas J. Whiteford</v>
+      </c>
+      <c r="B97" t="str">
+        <v>T: 410.347.8705</v>
+      </c>
+      <c r="C97" t="str">
+        <v>twhiteford@wtplaw.com</v>
+      </c>
+      <c r="D97" t="str">
+        <v>https://www.wtplaw.com/professionals/thomas-j-whiteford</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>MaryEllen Willman</v>
+      </c>
+      <c r="B98" t="str">
+        <v>T: 410.347.8720</v>
+      </c>
+      <c r="C98" t="str">
+        <v>mwillman@wtplaw.com</v>
+      </c>
+      <c r="D98" t="str">
+        <v>https://www.wtplaw.com/professionals/maryellen-willman</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>M. Trent Zivkovich</v>
+      </c>
+      <c r="B99" t="str">
+        <v>T: 410.347.8778</v>
+      </c>
+      <c r="C99" t="str">
+        <v>tzivkovich@wtplaw.com</v>
+      </c>
+      <c r="D99" t="str">
+        <v>https://www.wtplaw.com/professionals/m-trent-zivkovich'</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="C21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="C22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="C24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="C26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="C29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56"/>
+    <hyperlink ref="C30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="C32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="C33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="C34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="C35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="C36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="C37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="C39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="C40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78"/>
+    <hyperlink ref="C41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="C42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82"/>
+    <hyperlink ref="C43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="C44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="C45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88"/>
+    <hyperlink ref="C46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="C47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="C48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94"/>
+    <hyperlink ref="C49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96"/>
+    <hyperlink ref="C50" r:id="rId97"/>
+    <hyperlink ref="D50" r:id="rId98"/>
+    <hyperlink ref="C51" r:id="rId99"/>
+    <hyperlink ref="D51" r:id="rId100"/>
+    <hyperlink ref="C52" r:id="rId101"/>
+    <hyperlink ref="D52" r:id="rId102"/>
+    <hyperlink ref="C53" r:id="rId103"/>
+    <hyperlink ref="D53" r:id="rId104"/>
+    <hyperlink ref="C54" r:id="rId105"/>
+    <hyperlink ref="D54" r:id="rId106"/>
+    <hyperlink ref="C55" r:id="rId107"/>
+    <hyperlink ref="D55" r:id="rId108"/>
+    <hyperlink ref="C56" r:id="rId109"/>
+    <hyperlink ref="D56" r:id="rId110"/>
+    <hyperlink ref="C57" r:id="rId111"/>
+    <hyperlink ref="D57" r:id="rId112"/>
+    <hyperlink ref="C58" r:id="rId113"/>
+    <hyperlink ref="D58" r:id="rId114"/>
+    <hyperlink ref="C59" r:id="rId115"/>
+    <hyperlink ref="D59" r:id="rId116"/>
+    <hyperlink ref="C60" r:id="rId117"/>
+    <hyperlink ref="D60" r:id="rId118"/>
+    <hyperlink ref="C61" r:id="rId119"/>
+    <hyperlink ref="D61" r:id="rId120"/>
+    <hyperlink ref="C62" r:id="rId121"/>
+    <hyperlink ref="D62" r:id="rId122"/>
+    <hyperlink ref="C63" r:id="rId123"/>
+    <hyperlink ref="D63" r:id="rId124"/>
+    <hyperlink ref="C64" r:id="rId125"/>
+    <hyperlink ref="D64" r:id="rId126"/>
+    <hyperlink ref="C65" r:id="rId127"/>
+    <hyperlink ref="D65" r:id="rId128"/>
+    <hyperlink ref="C66" r:id="rId129"/>
+    <hyperlink ref="D66" r:id="rId130"/>
+    <hyperlink ref="C67" r:id="rId131"/>
+    <hyperlink ref="D67" r:id="rId132"/>
+    <hyperlink ref="C68" r:id="rId133"/>
+    <hyperlink ref="D68" r:id="rId134"/>
+    <hyperlink ref="C69" r:id="rId135"/>
+    <hyperlink ref="D69" r:id="rId136"/>
+    <hyperlink ref="C70" r:id="rId137"/>
+    <hyperlink ref="D70" r:id="rId138"/>
+    <hyperlink ref="C71" r:id="rId139"/>
+    <hyperlink ref="D71" r:id="rId140"/>
+    <hyperlink ref="C72" r:id="rId141"/>
+    <hyperlink ref="D72" r:id="rId142"/>
+    <hyperlink ref="C73" r:id="rId143"/>
+    <hyperlink ref="D73" r:id="rId144"/>
+    <hyperlink ref="C74" r:id="rId145"/>
+    <hyperlink ref="D74" r:id="rId146"/>
+    <hyperlink ref="C75" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="C76" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150"/>
+    <hyperlink ref="C77" r:id="rId151"/>
+    <hyperlink ref="D77" r:id="rId152"/>
+    <hyperlink ref="C78" r:id="rId153"/>
+    <hyperlink ref="D78" r:id="rId154"/>
+    <hyperlink ref="C79" r:id="rId155"/>
+    <hyperlink ref="D79" r:id="rId156"/>
+    <hyperlink ref="C80" r:id="rId157"/>
+    <hyperlink ref="D80" r:id="rId158"/>
+    <hyperlink ref="C81" r:id="rId159"/>
+    <hyperlink ref="D81" r:id="rId160"/>
+    <hyperlink ref="C82" r:id="rId161"/>
+    <hyperlink ref="D82" r:id="rId162"/>
+    <hyperlink ref="C83" r:id="rId163"/>
+    <hyperlink ref="D83" r:id="rId164"/>
+    <hyperlink ref="C84" r:id="rId165"/>
+    <hyperlink ref="D84" r:id="rId166"/>
+    <hyperlink ref="C85" r:id="rId167"/>
+    <hyperlink ref="D85" r:id="rId168"/>
+    <hyperlink ref="C86" r:id="rId169"/>
+    <hyperlink ref="D86" r:id="rId170"/>
+    <hyperlink ref="C87" r:id="rId171"/>
+    <hyperlink ref="D87" r:id="rId172"/>
+    <hyperlink ref="C88" r:id="rId173"/>
+    <hyperlink ref="D88" r:id="rId174"/>
+    <hyperlink ref="C89" r:id="rId175"/>
+    <hyperlink ref="D89" r:id="rId176"/>
+    <hyperlink ref="C90" r:id="rId177"/>
+    <hyperlink ref="D90" r:id="rId178"/>
+    <hyperlink ref="C91" r:id="rId179"/>
+    <hyperlink ref="D91" r:id="rId180"/>
+    <hyperlink ref="C92" r:id="rId181"/>
+    <hyperlink ref="D92" r:id="rId182"/>
+    <hyperlink ref="C93" r:id="rId183"/>
+    <hyperlink ref="D93" r:id="rId184"/>
+    <hyperlink ref="C94" r:id="rId185"/>
+    <hyperlink ref="D94" r:id="rId186"/>
+    <hyperlink ref="C95" r:id="rId187"/>
+    <hyperlink ref="D95" r:id="rId188"/>
+    <hyperlink ref="C96" r:id="rId189"/>
+    <hyperlink ref="D96" r:id="rId190"/>
+    <hyperlink ref="C97" r:id="rId191"/>
+    <hyperlink ref="D97" r:id="rId192"/>
+    <hyperlink ref="C98" r:id="rId193"/>
+    <hyperlink ref="D98" r:id="rId194"/>
+    <hyperlink ref="C99" r:id="rId195"/>
+    <hyperlink ref="D99" r:id="rId196"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E99"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mail</v>
+      </c>
+      <c r="D1" t="str">
+        <v>office</v>
+      </c>
+      <c r="E1" t="str">
+        <v>practice</v>
+      </c>
+      <c r="F1" t="str">
+        <v>practices</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>James M. Auslander</v>
+      </c>
+      <c r="B2" t="str">
+        <v>+1.202.789.6009</v>
+      </c>
+      <c r="C2" t="str">
+        <v>jauslander@bdlaw.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>David A. Barker</v>
+      </c>
+      <c r="B3" t="str">
+        <v>+1.202.789.6050</v>
+      </c>
+      <c r="C3" t="str">
+        <v>dbarker@bdlaw.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Madeleine Boyer</v>
+      </c>
+      <c r="B4" t="str">
+        <v>+1.512.391.8010</v>
+      </c>
+      <c r="C4" t="str">
+        <v>mboyer@bdlaw.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Robert Brager</v>
+      </c>
+      <c r="B5" t="str">
+        <v>+1.410.230.1310</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rbrager@bdlaw.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Baltimore, MD</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Megan R. Brillault</v>
+      </c>
+      <c r="B6" t="str">
+        <v>+1.212.702.5414</v>
+      </c>
+      <c r="C6" t="str">
+        <v>mbrillault@bdlaw.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ryan J. Carra</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+1.202.789.6059</v>
+      </c>
+      <c r="C7" t="str">
+        <v>rcarra@bdlaw.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Alyse I. Constantinide</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+1.202.789.6076</v>
+      </c>
+      <c r="C8" t="str">
+        <v>AConstantinide@bdlaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Nessa Horewitch Coppinger</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+1.202.789.6053</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ncoppinger@bdlaw.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>John C. Cruden</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+1.202.789.6018</v>
+      </c>
+      <c r="C10" t="str">
+        <v>jcruden@bdlaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Richard S. Davis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+1.202.789.6025</v>
+      </c>
+      <c r="C11" t="str">
+        <v>rdavis@bdlaw.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Brook Detterman</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+1.617.419.2345</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bdetterman@bdlaw.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Loren R. Dunn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+1.206.315.4810</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ldunn@bdlaw.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mark N. Duvall</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+1.202.789.6090</v>
+      </c>
+      <c r="C14" t="str">
+        <v>mduvall@bdlaw.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Daniel A. Eisenberg</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+1.202.789.6046</v>
+      </c>
+      <c r="C15" t="str">
+        <v>deisenberg@bdlaw.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>David M. Friedland</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+1.202.789.6047</v>
+      </c>
+      <c r="C16" t="str">
+        <v>dfriedland@bdlaw.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Aaron H. Goldberg</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+1.202.789.6052</v>
+      </c>
+      <c r="C17" t="str">
+        <v>agoldberg@bdlaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Marc J. Goldstein</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+1.617.419.2315</v>
+      </c>
+      <c r="C18" t="str">
+        <v>mgoldstein@bdlaw.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Stephen L. Gordon</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+1.212.702.5410</v>
+      </c>
+      <c r="C19" t="str">
+        <v>sgordon@bdlaw.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jeanine L.G. Grachuk</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+1.617.419.2323</v>
+      </c>
+      <c r="C20" t="str">
+        <v>jgrachuk@bdlaw.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>John S. Guttmann</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+1.202.789.6020</v>
+      </c>
+      <c r="C21" t="str">
+        <v>jguttmann@bdlaw.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Paul E. Hagen</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+1.202.789.6022</v>
+      </c>
+      <c r="C22" t="str">
+        <v>phagen@bdlaw.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Stacey Sublett Halliday</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+1.202.789.6074</v>
+      </c>
+      <c r="C23" t="str">
+        <v>shalliday@bdlaw.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Karen M. Hansen</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+1.512.391.8040</v>
+      </c>
+      <c r="C24" t="str">
+        <v>khansen@bdlaw.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>John N. Hanson</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+1.202.789.6015</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jhanson@bdlaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Lauren A. Hopkins</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+1.206.620.3038</v>
+      </c>
+      <c r="C26" t="str">
+        <v>lhopkins@bdlaw.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Alexander Horning</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+1.202.789.6061</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ahorning@bdlaw.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Steven M. Jawetz</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+1.202.789.6045</v>
+      </c>
+      <c r="C28" t="str">
+        <v>sjawetz@bdlaw.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>John H. Kazanjian</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+1.212.702.5420</v>
+      </c>
+      <c r="C29" t="str">
+        <v>jkazanjian@bdlaw.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Eric L. Klein</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+1.617.419.2316</v>
+      </c>
+      <c r="C30" t="str">
+        <v>eklein@bdlaw.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Heidi P. Knight</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+1.617.419.2365</v>
+      </c>
+      <c r="C31" t="str">
+        <v>hknight@bdlaw.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mail</v>
+      </c>
+      <c r="D1" t="str">
+        <v>office</v>
+      </c>
+      <c r="E1" t="str">
+        <v>practice</v>
+      </c>
+      <c r="F1" t="str">
+        <v>practices</v>
+      </c>
+      <c r="G1" t="str">
+        <v>practicesFinal</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>James M. Auslander</v>
+      </c>
+      <c r="B2" t="str">
+        <v>+1.202.789.6009</v>
+      </c>
+      <c r="C2" t="str">
+        <v>jauslander@bdlaw.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>David A. Barker</v>
+      </c>
+      <c r="B3" t="str">
+        <v>+1.202.789.6050</v>
+      </c>
+      <c r="C3" t="str">
+        <v>dbarker@bdlaw.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Madeleine Boyer</v>
+      </c>
+      <c r="B4" t="str">
+        <v>+1.512.391.8010</v>
+      </c>
+      <c r="C4" t="str">
+        <v>mboyer@bdlaw.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Robert Brager</v>
+      </c>
+      <c r="B5" t="str">
+        <v>+1.410.230.1310</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rbrager@bdlaw.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Baltimore, MD</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Megan R. Brillault</v>
+      </c>
+      <c r="B6" t="str">
+        <v>+1.212.702.5414</v>
+      </c>
+      <c r="C6" t="str">
+        <v>mbrillault@bdlaw.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ryan J. Carra</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+1.202.789.6059</v>
+      </c>
+      <c r="C7" t="str">
+        <v>rcarra@bdlaw.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Alyse I. Constantinide</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+1.202.789.6076</v>
+      </c>
+      <c r="C8" t="str">
+        <v>AConstantinide@bdlaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Nessa Horewitch Coppinger</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+1.202.789.6053</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ncoppinger@bdlaw.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>John C. Cruden</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+1.202.789.6018</v>
+      </c>
+      <c r="C10" t="str">
+        <v>jcruden@bdlaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Richard S. Davis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+1.202.789.6025</v>
+      </c>
+      <c r="C11" t="str">
+        <v>rdavis@bdlaw.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Brook Detterman</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+1.617.419.2345</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bdetterman@bdlaw.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Loren R. Dunn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+1.206.315.4810</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ldunn@bdlaw.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mark N. Duvall</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+1.202.789.6090</v>
+      </c>
+      <c r="C14" t="str">
+        <v>mduvall@bdlaw.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Daniel A. Eisenberg</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+1.202.789.6046</v>
+      </c>
+      <c r="C15" t="str">
+        <v>deisenberg@bdlaw.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>David M. Friedland</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+1.202.789.6047</v>
+      </c>
+      <c r="C16" t="str">
+        <v>dfriedland@bdlaw.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Aaron H. Goldberg</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+1.202.789.6052</v>
+      </c>
+      <c r="C17" t="str">
+        <v>agoldberg@bdlaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Marc J. Goldstein</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+1.617.419.2315</v>
+      </c>
+      <c r="C18" t="str">
+        <v>mgoldstein@bdlaw.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Stephen L. Gordon</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+1.212.702.5410</v>
+      </c>
+      <c r="C19" t="str">
+        <v>sgordon@bdlaw.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jeanine L.G. Grachuk</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+1.617.419.2323</v>
+      </c>
+      <c r="C20" t="str">
+        <v>jgrachuk@bdlaw.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>John S. Guttmann</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+1.202.789.6020</v>
+      </c>
+      <c r="C21" t="str">
+        <v>jguttmann@bdlaw.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Paul E. Hagen</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+1.202.789.6022</v>
+      </c>
+      <c r="C22" t="str">
+        <v>phagen@bdlaw.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Stacey Sublett Halliday</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+1.202.789.6074</v>
+      </c>
+      <c r="C23" t="str">
+        <v>shalliday@bdlaw.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Karen M. Hansen</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+1.512.391.8040</v>
+      </c>
+      <c r="C24" t="str">
+        <v>khansen@bdlaw.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>John N. Hanson</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+1.202.789.6015</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jhanson@bdlaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Lauren A. Hopkins</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+1.206.620.3038</v>
+      </c>
+      <c r="C26" t="str">
+        <v>lhopkins@bdlaw.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Alexander Horning</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+1.202.789.6061</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ahorning@bdlaw.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Steven M. Jawetz</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+1.202.789.6045</v>
+      </c>
+      <c r="C28" t="str">
+        <v>sjawetz@bdlaw.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>John H. Kazanjian</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+1.212.702.5420</v>
+      </c>
+      <c r="C29" t="str">
+        <v>jkazanjian@bdlaw.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Eric L. Klein</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+1.617.419.2316</v>
+      </c>
+      <c r="C30" t="str">
+        <v>eklein@bdlaw.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Heidi P. Knight</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+1.617.419.2365</v>
+      </c>
+      <c r="C31" t="str">
+        <v>hknight@bdlaw.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mail</v>
+      </c>
+      <c r="D1" t="str">
+        <v>office</v>
+      </c>
+      <c r="E1" t="str">
+        <v>practice</v>
+      </c>
+      <c r="F1" t="str">
+        <v>practices</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>James M. Auslander</v>
+      </c>
+      <c r="B2" t="str">
+        <v>+1.202.789.6009</v>
+      </c>
+      <c r="C2" t="str">
+        <v>jauslander@bdlaw.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>David A. Barker</v>
+      </c>
+      <c r="B3" t="str">
+        <v>+1.202.789.6050</v>
+      </c>
+      <c r="C3" t="str">
+        <v>dbarker@bdlaw.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Madeleine Boyer</v>
+      </c>
+      <c r="B4" t="str">
+        <v>+1.512.391.8010</v>
+      </c>
+      <c r="C4" t="str">
+        <v>mboyer@bdlaw.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Robert Brager</v>
+      </c>
+      <c r="B5" t="str">
+        <v>+1.410.230.1310</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rbrager@bdlaw.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Baltimore, MD</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Megan R. Brillault</v>
+      </c>
+      <c r="B6" t="str">
+        <v>+1.212.702.5414</v>
+      </c>
+      <c r="C6" t="str">
+        <v>mbrillault@bdlaw.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ryan J. Carra</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+1.202.789.6059</v>
+      </c>
+      <c r="C7" t="str">
+        <v>rcarra@bdlaw.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Alyse I. Constantinide</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+1.202.789.6076</v>
+      </c>
+      <c r="C8" t="str">
+        <v>AConstantinide@bdlaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Nessa Horewitch Coppinger</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+1.202.789.6053</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ncoppinger@bdlaw.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>John C. Cruden</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+1.202.789.6018</v>
+      </c>
+      <c r="C10" t="str">
+        <v>jcruden@bdlaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Richard S. Davis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+1.202.789.6025</v>
+      </c>
+      <c r="C11" t="str">
+        <v>rdavis@bdlaw.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Brook Detterman</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+1.617.419.2345</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bdetterman@bdlaw.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Loren R. Dunn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+1.206.315.4810</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ldunn@bdlaw.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mark N. Duvall</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+1.202.789.6090</v>
+      </c>
+      <c r="C14" t="str">
+        <v>mduvall@bdlaw.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Daniel A. Eisenberg</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+1.202.789.6046</v>
+      </c>
+      <c r="C15" t="str">
+        <v>deisenberg@bdlaw.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>David M. Friedland</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+1.202.789.6047</v>
+      </c>
+      <c r="C16" t="str">
+        <v>dfriedland@bdlaw.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Aaron H. Goldberg</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+1.202.789.6052</v>
+      </c>
+      <c r="C17" t="str">
+        <v>agoldberg@bdlaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Marc J. Goldstein</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+1.617.419.2315</v>
+      </c>
+      <c r="C18" t="str">
+        <v>mgoldstein@bdlaw.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Stephen L. Gordon</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+1.212.702.5410</v>
+      </c>
+      <c r="C19" t="str">
+        <v>sgordon@bdlaw.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jeanine L.G. Grachuk</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+1.617.419.2323</v>
+      </c>
+      <c r="C20" t="str">
+        <v>jgrachuk@bdlaw.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>John S. Guttmann</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+1.202.789.6020</v>
+      </c>
+      <c r="C21" t="str">
+        <v>jguttmann@bdlaw.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Paul E. Hagen</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+1.202.789.6022</v>
+      </c>
+      <c r="C22" t="str">
+        <v>phagen@bdlaw.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Stacey Sublett Halliday</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+1.202.789.6074</v>
+      </c>
+      <c r="C23" t="str">
+        <v>shalliday@bdlaw.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Karen M. Hansen</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+1.512.391.8040</v>
+      </c>
+      <c r="C24" t="str">
+        <v>khansen@bdlaw.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Austin, TX</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>John N. Hanson</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+1.202.789.6015</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jhanson@bdlaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Lauren A. Hopkins</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+1.206.620.3038</v>
+      </c>
+      <c r="C26" t="str">
+        <v>lhopkins@bdlaw.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Seattle, WA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Alexander Horning</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+1.202.789.6061</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ahorning@bdlaw.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Steven M. Jawetz</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+1.202.789.6045</v>
+      </c>
+      <c r="C28" t="str">
+        <v>sjawetz@bdlaw.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Washington, DC</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>John H. Kazanjian</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+1.212.702.5420</v>
+      </c>
+      <c r="C29" t="str">
+        <v>jkazanjian@bdlaw.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>New York, NY</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Eric L. Klein</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+1.617.419.2316</v>
+      </c>
+      <c r="C30" t="str">
+        <v>eklein@bdlaw.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Heidi P. Knight</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+1.617.419.2365</v>
+      </c>
+      <c r="C31" t="str">
+        <v>hknight@bdlaw.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Boston, MA</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mail</v>
+      </c>
+      <c r="D1" t="str">
+        <v>office</v>
+      </c>
+      <c r="E1" t="str">
+        <v>practices</v>
+      </c>
+      <c r="F1" t="str">
+        <v>partnerToString</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>James M. Auslander</v>
+      </c>
+      <c r="B2" t="str">
+        <v>+1.202.789.6009</v>
+      </c>
+      <c r="C2" t="str">
+        <v>jauslander@bdlaw.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F2" t="str">
+        <v>["Endangered Species, Wildlife Protection","Litigation","Mining, Metals","Natural Resources, Federal Lands","NEPA and Historic Preservation Reviews","Oil, Gas","Pipelines","Renewable Energy","Fisheries &amp;amp; Aquaculture","Environmental Justice","AgTech Regulatory Resource Center"]</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>David A. Barker</v>
+      </c>
+      <c r="B3" t="str">
+        <v>+1.202.789.6050</v>
+      </c>
+      <c r="C3" t="str">
+        <v>dbarker@bdlaw.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F3" t="str">
+        <v>["Biotechnology and Pesticides Regulation","Litigation","AgTech Regulatory Resource Center"]</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Madeleine Boyer</v>
+      </c>
+      <c r="B4" t="str">
+        <v>+1.512.391.8010</v>
+      </c>
+      <c r="C4" t="str">
+        <v>mboyer@bdlaw.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Austin, TX</v>
+      </c>
+      <c r="F4" t="str">
+        <v>["Air, Climate Change","Chemicals Regulation","Sustainability, ESG","International Environmental Law","Waste, Recycling","Refining, Petrochemicals","Latin American Environmental Regulation Resource Center","Texas Environmental Resource Center"]</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Robert Brager</v>
+      </c>
+      <c r="B5" t="str">
+        <v>+1.410.230.1310</v>
+      </c>
+      <c r="C5" t="str">
+        <v>rbrager@bdlaw.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Baltimore, MD</v>
+      </c>
+      <c r="F5" t="str">
+        <v>["Air, Climate Change","Alternative Dispute Resolution","Litigation","Audits, Risk and Compliance Program Assessments","Toxic Torts, Environmental Tort","Environmental Crimes Defense &amp;amp; Internal Investigations"]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Megan R. Brillault</v>
+      </c>
+      <c r="B6" t="str">
+        <v>+1.212.702.5414</v>
+      </c>
+      <c r="C6" t="str">
+        <v>mbrillault@bdlaw.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="F6" t="str">
+        <v>["Insurance Recovery","Litigation","Superfund, Site Remediation, Natural Resource Damages","Toxic Torts, Environmental Tort"]</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ryan J. Carra</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+1.202.789.6059</v>
+      </c>
+      <c r="C7" t="str">
+        <v>rcarra@bdlaw.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F7" t="str">
+        <v>["Chemicals","Chemicals Regulation","Product Stewardship, Global Supply Chains","Chemical Regulation Resource Center"]</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Alyse I. Constantinide</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+1.202.789.6076</v>
+      </c>
+      <c r="C8" t="str">
+        <v>AConstantinide@bdlaw.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F8" t="str">
+        <v>["Environmental Crimes Defense &amp;amp; Internal Investigations","Audits, Risk and Compliance Program Assessments","Crisis Planning and Response","Enforcement Defense, Citizen Suits","Environmental Justice","Litigation"]</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Nessa Horewitch Coppinger</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+1.202.789.6053</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ncoppinger@bdlaw.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F9" t="str">
+        <v>["Natural Resources, Federal Lands","Litigation","NEPA and Historic Preservation Reviews","Toxic Torts, Environmental Tort"]</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>John C. Cruden</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+1.202.789.6018</v>
+      </c>
+      <c r="C10" t="str">
+        <v>jcruden@bdlaw.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F10" t="str">
+        <v>["Litigation","Crisis Planning and Response","Enforcement Defense, Citizen Suits","Environmental Justice","Superfund, Site Remediation, Natural Resource Damages","Sustainability, ESG","Environmental Crimes Defense &amp;amp; Internal Investigations"]</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Richard S. Davis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+1.202.789.6025</v>
+      </c>
+      <c r="C11" t="str">
+        <v>rdavis@bdlaw.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F11" t="str">
+        <v>["Natural Resources, Federal Lands","Infrastructure and Project Development and Permitting","Municipal and State Governments","Water"]</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Brook Detterman</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+1.617.419.2345</v>
+      </c>
+      <c r="C12" t="str">
+        <v>bdetterman@bdlaw.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="F12" t="str">
+        <v>["Air, Climate Change","Litigation","Renewable Energy"]</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Loren R. Dunn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+1.206.315.4810</v>
+      </c>
+      <c r="C13" t="str">
+        <v>ldunn@bdlaw.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Seattle, WA</v>
+      </c>
+      <c r="F13" t="str">
+        <v>["Alternative Dispute Resolution","Litigation","Manufacturing","Superfund, Site Remediation, Natural Resource Damages","West Coast Environmental Resource Center"]</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Mark N. Duvall</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+1.202.789.6090</v>
+      </c>
+      <c r="C14" t="str">
+        <v>mduvall@bdlaw.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F14" t="str">
+        <v>["Chemicals Regulation","Chemicals","Food, Beverage","Occupational Safety and Health","Pesticides","Industrial Hemp &amp;amp; Cannabis","Occupational Safety &amp;amp; Health Resource Center","Chemical Regulation Resource Center"]</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Daniel A. Eisenberg</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+1.202.789.6046</v>
+      </c>
+      <c r="C15" t="str">
+        <v>deisenberg@bdlaw.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F15" t="str">
+        <v>["Biotechnology and Pesticides Regulation","Litigation","Consumer Products","Toxic Torts, Environmental Tort","Electronics, Information Technology, Telecommunications","AgTech Regulatory Resource Center"]</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>David M. Friedland</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+1.202.789.6047</v>
+      </c>
+      <c r="C16" t="str">
+        <v>dfriedland@bdlaw.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F16" t="str">
+        <v>["Air, Climate Change","Enforcement Defense, Citizen Suits","Transportation"]</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Aaron H. Goldberg</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+1.202.789.6052</v>
+      </c>
+      <c r="C17" t="str">
+        <v>agoldberg@bdlaw.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F17" t="str">
+        <v>["Hazardous Materials and Dangerous Goods Transportation","Pipelines","Retail","Waste, Recycling"]</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Marc J. Goldstein</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+1.617.419.2315</v>
+      </c>
+      <c r="C18" t="str">
+        <v>mgoldstein@bdlaw.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="F18" t="str">
+        <v>["Litigation","Enforcement Defense, Citizen Suits","Infrastructure and Project Development and Permitting","Superfund, Site Remediation, Natural Resource Damages","Waste, Recycling","Environmental Crimes Defense &amp;amp; Internal Investigations","Universities, Colleges","Waste Treatment, Recycling, Disposal Services"]</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Stephen L. Gordon</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+1.212.702.5410</v>
+      </c>
+      <c r="C19" t="str">
+        <v>sgordon@bdlaw.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="F19" t="str">
+        <v>["Electric Power","Land Development, Real Estate, Housing","Natural Resources, Federal Lands","Waste, Recycling"]</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Jeanine L.G. Grachuk</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+1.617.419.2323</v>
+      </c>
+      <c r="C20" t="str">
+        <v>jgrachuk@bdlaw.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>["Air, Climate Change","Electric Power","Crisis Planning and Response","Land Development, Real Estate, Housing","Superfund, Site Remediation, Natural Resource Damages","Transactions, Due Diligence"]</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>John S. Guttmann</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+1.202.789.6020</v>
+      </c>
+      <c r="C21" t="str">
+        <v>jguttmann@bdlaw.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F21" t="str">
+        <v>["Litigation","Toxic Torts, Environmental Tort","Superfund, Site Remediation, Natural Resource Damages"]</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Paul E. Hagen</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+1.202.789.6022</v>
+      </c>
+      <c r="C22" t="str">
+        <v>phagen@bdlaw.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F22" t="str">
+        <v>["Product Stewardship, Global Supply Chains","International Environmental Law","Electronics, Information Technology, Telecommunications","Chemicals","Waste, Recycling","Consumer Products","Forest Products, Timber, Paper","Pharmaceuticals, Health Care","Sustainability, ESG","Fisheries &amp;amp; Aquaculture","Textiles and Fashion","Chemical Regulation Resource Center"]</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Stacey Sublett Halliday</v>
+      </c>
+      <c r="B23" t="str">
+        <v>+1.202.789.6074</v>
+      </c>
+      <c r="C23" t="str">
+        <v>shalliday@bdlaw.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F23" t="str">
+        <v>["Environmental Justice","Product Stewardship, Global Supply Chains","Sustainability, ESG","Crisis Planning and Response","Environmental Crimes Defense &amp;amp; Internal Investigations","Consumer Products","Electronics, Information Technology, Telecommunications","Retail","Textiles and Fashion"]</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Karen M. Hansen</v>
+      </c>
+      <c r="B24" t="str">
+        <v>+1.512.391.8040</v>
+      </c>
+      <c r="C24" t="str">
+        <v>khansen@bdlaw.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Austin, TX</v>
+      </c>
+      <c r="F24" t="str">
+        <v>["Audits, Risk and Compliance Program Assessments","Chemicals","Municipal and State Governments","Water","Environmental Crimes Defense &amp;amp; Internal Investigations","Texas Environmental Resource Center"]</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>John N. Hanson</v>
+      </c>
+      <c r="B25" t="str">
+        <v>+1.202.789.6015</v>
+      </c>
+      <c r="C25" t="str">
+        <v>jhanson@bdlaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F25" t="str">
+        <v>["Alternative Dispute Resolution","Enforcement Defense, Citizen Suits","Litigation","Superfund, Site Remediation, Natural Resource Damages","Environmental Crimes Defense &amp;amp; Internal Investigations"]</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Lauren A. Hopkins</v>
+      </c>
+      <c r="B26" t="str">
+        <v>+1.206.620.3038</v>
+      </c>
+      <c r="C26" t="str">
+        <v>lhopkins@bdlaw.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Seattle, WA</v>
+      </c>
+      <c r="F26" t="str">
+        <v>["Consumer Products","Sustainability, ESG","Electronics, Information Technology, Telecommunications","Forest Products, Timber, Paper","Industrial Hemp &amp;amp; Cannabis","Product Stewardship, Global Supply Chains","Textiles and Fashion","Chemical Regulation Resource Center","West Coast Environmental Resource Center"]</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Alexander Horning</v>
+      </c>
+      <c r="B27" t="str">
+        <v>+1.202.789.6061</v>
+      </c>
+      <c r="C27" t="str">
+        <v>ahorning@bdlaw.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F27" t="str">
+        <v>["Biotechnology and Pesticides Regulation","Endangered Species, Wildlife Protection","Litigation","NEPA and Historic Preservation Reviews","Pharmaceuticals, Health Care","Product Stewardship, Global Supply Chains","Waste, Recycling","AgTech Regulatory Resource Center"]</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Steven M. Jawetz</v>
+      </c>
+      <c r="B28" t="str">
+        <v>+1.202.789.6045</v>
+      </c>
+      <c r="C28" t="str">
+        <v>sjawetz@bdlaw.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="F28" t="str">
+        <v>["Superfund, Site Remediation, Natural Resource Damages","Chemical Regulation Resource Center"]</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>John H. Kazanjian</v>
+      </c>
+      <c r="B29" t="str">
+        <v>+1.212.702.5420</v>
+      </c>
+      <c r="C29" t="str">
+        <v>jkazanjian@bdlaw.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="F29" t="str">
+        <v>["Insurance Recovery","Litigation","Alternative Dispute Resolution","Toxic Torts, Environmental Tort"]</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Eric L. Klein</v>
+      </c>
+      <c r="B30" t="str">
+        <v>+1.617.419.2316</v>
+      </c>
+      <c r="C30" t="str">
+        <v>eklein@bdlaw.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="F30" t="str">
+        <v>["Enforcement Defense, Citizen Suits","Litigation","Toxic Torts, Environmental Tort"]</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Heidi P. Knight</v>
+      </c>
+      <c r="B31" t="str">
+        <v>+1.617.419.2365</v>
+      </c>
+      <c r="C31" t="str">
+        <v>hknight@bdlaw.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="F31" t="str">
+        <v>["Air, Climate Change","Audits, Risk and Compliance Program Assessments","Enforcement Defense, Citizen Suits","Manufacturing","Occupational Safety and Health","Transactions, Due Diligence","Occupational Safety &amp;amp; Health Resource Center"]</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F31"/>
+  </ignoredErrors>
+</worksheet>
 </file>